--- a/data/tumor-size/AOT00043109-mimic03/AOT00043109_size-measurements.xlsx
+++ b/data/tumor-size/AOT00043109-mimic03/AOT00043109_size-measurements.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25412"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wil407\Box Sync\mimic\data\AOT00043109-mimic03\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A819CE3E-F535-4361-9FDD-BB261D8D7EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -32,7 +43,10 @@
     <t>tail.number</t>
   </si>
   <si>
-    <t>cage (treatment)</t>
+    <t xml:space="preserve">cage </t>
+  </si>
+  <si>
+    <t>Treatment</t>
   </si>
   <si>
     <t>microbiome.sample</t>
@@ -41,7 +55,7 @@
     <t>weight.(g)</t>
   </si>
   <si>
-    <t>tumor.size.(mm)</t>
+    <t>tumor.number</t>
   </si>
   <si>
     <t>tumor.length.(mm)</t>
@@ -50,29 +64,32 @@
     <t>tumor.width.(mm)</t>
   </si>
   <si>
-    <t>IgG-1</t>
+    <t>on treatment?</t>
   </si>
   <si>
-    <t>IgG-2</t>
+    <t>no</t>
   </si>
   <si>
-    <t>PD1-3</t>
+    <t>Yes</t>
   </si>
   <si>
-    <t>PD1-4</t>
+    <t>IgG</t>
   </si>
   <si>
     <t>Fitness Res: DL017</t>
   </si>
   <si>
-    <t>not present</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>PD1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +118,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,34 +408,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J139" sqref="J139"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J50" sqref="J50:J133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="3" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -433,8 +454,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>44433</v>
       </c>
@@ -445,11 +472,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>44433</v>
       </c>
@@ -460,11 +491,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>44433</v>
       </c>
@@ -475,11 +510,15 @@
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>44433</v>
       </c>
@@ -490,11 +529,15 @@
         <v>2</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>44433</v>
       </c>
@@ -505,11 +548,15 @@
         <v>2</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>44433</v>
       </c>
@@ -520,11 +567,15 @@
         <v>2</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>44433</v>
       </c>
@@ -535,11 +586,15 @@
         <v>3</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>44433</v>
       </c>
@@ -550,11 +605,15 @@
         <v>3</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>44433</v>
       </c>
@@ -565,11 +624,15 @@
         <v>3</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>44433</v>
       </c>
@@ -580,11 +643,15 @@
         <v>4</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>44433</v>
       </c>
@@ -595,11 +662,15 @@
         <v>4</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>44433</v>
       </c>
@@ -610,11 +681,15 @@
         <v>4</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>44442</v>
       </c>
@@ -625,11 +700,15 @@
         <v>1</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>44442</v>
       </c>
@@ -640,11 +719,15 @@
         <v>1</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>44442</v>
       </c>
@@ -655,11 +738,15 @@
         <v>1</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>44442</v>
       </c>
@@ -670,11 +757,15 @@
         <v>2</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>44442</v>
       </c>
@@ -685,11 +776,15 @@
         <v>2</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>44442</v>
       </c>
@@ -700,11 +795,15 @@
         <v>2</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>44442</v>
       </c>
@@ -715,11 +814,15 @@
         <v>3</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>44442</v>
       </c>
@@ -730,11 +833,15 @@
         <v>3</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>44442</v>
       </c>
@@ -745,11 +852,15 @@
         <v>3</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>44442</v>
       </c>
@@ -760,11 +871,15 @@
         <v>4</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>44442</v>
       </c>
@@ -775,11 +890,15 @@
         <v>4</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>44442</v>
       </c>
@@ -790,11 +909,15 @@
         <v>4</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>44449</v>
       </c>
@@ -805,11 +928,15 @@
         <v>1</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>44449</v>
       </c>
@@ -820,11 +947,15 @@
         <v>1</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>44449</v>
       </c>
@@ -835,11 +966,15 @@
         <v>1</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>44449</v>
       </c>
@@ -850,11 +985,15 @@
         <v>2</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>44449</v>
       </c>
@@ -865,11 +1004,15 @@
         <v>2</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>44449</v>
       </c>
@@ -880,11 +1023,15 @@
         <v>2</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="1">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>44449</v>
       </c>
@@ -895,11 +1042,15 @@
         <v>3</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>44449</v>
       </c>
@@ -910,11 +1061,15 @@
         <v>3</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>44449</v>
       </c>
@@ -925,11 +1080,15 @@
         <v>3</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="1">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>44449</v>
       </c>
@@ -940,11 +1099,15 @@
         <v>4</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="1">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>44449</v>
       </c>
@@ -955,11 +1118,15 @@
         <v>4</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>44449</v>
       </c>
@@ -970,11 +1137,15 @@
         <v>4</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="1">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>44455</v>
       </c>
@@ -985,11 +1156,15 @@
         <v>1</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="1">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>44455</v>
       </c>
@@ -1000,11 +1175,15 @@
         <v>1</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="1">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>44455</v>
       </c>
@@ -1015,11 +1194,15 @@
         <v>1</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>44455</v>
       </c>
@@ -1030,11 +1213,15 @@
         <v>2</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>44455</v>
       </c>
@@ -1045,11 +1232,15 @@
         <v>2</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>44455</v>
       </c>
@@ -1060,11 +1251,15 @@
         <v>2</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>44455</v>
       </c>
@@ -1075,11 +1270,15 @@
         <v>3</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
         <v>44455</v>
       </c>
@@ -1090,11 +1289,15 @@
         <v>3</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="1">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="2">
         <v>44455</v>
       </c>
@@ -1105,11 +1308,15 @@
         <v>3</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="1">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="2">
         <v>44455</v>
       </c>
@@ -1120,11 +1327,15 @@
         <v>4</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="1">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="2">
         <v>44455</v>
       </c>
@@ -1135,11 +1346,15 @@
         <v>4</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="1">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="2">
         <v>44455</v>
       </c>
@@ -1150,11 +1365,15 @@
         <v>4</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="1">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="2">
         <v>44459</v>
       </c>
@@ -1166,14 +1385,21 @@
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
       <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
         <v>2.5</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="2">
         <v>44459</v>
       </c>
@@ -1185,14 +1411,21 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
       <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
         <v>5.6</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J51" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="2">
         <v>44459</v>
       </c>
@@ -1204,14 +1437,21 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
       <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="2">
         <v>44459</v>
       </c>
@@ -1223,14 +1463,21 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
       <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
         <v>4.3</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="2">
         <v>44459</v>
       </c>
@@ -1242,14 +1489,21 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="2">
         <v>44459</v>
       </c>
@@ -1261,14 +1515,21 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
       <c r="G55" s="1">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="2">
         <v>44459</v>
       </c>
@@ -1280,14 +1541,21 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
       <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
         <v>7.2</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J56" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="2">
         <v>44459</v>
       </c>
@@ -1299,14 +1567,21 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
       <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1">
         <v>3.2</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="2">
         <v>44459</v>
       </c>
@@ -1318,14 +1593,21 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
       <c r="G58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="2">
         <v>44459</v>
       </c>
@@ -1337,14 +1619,21 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="2">
         <v>44459</v>
       </c>
@@ -1356,14 +1645,21 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
       <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J60" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="2">
         <v>44459</v>
       </c>
@@ -1375,14 +1671,21 @@
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
       <c r="G61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61" s="1">
+        <v>3</v>
+      </c>
+      <c r="I61" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="2">
         <v>44461</v>
       </c>
@@ -1392,17 +1695,24 @@
       <c r="C62" s="1">
         <v>1</v>
       </c>
-      <c r="E62">
+      <c r="D62" s="1"/>
+      <c r="F62">
         <v>22.8</v>
       </c>
       <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
         <v>4.5</v>
       </c>
-      <c r="H62" s="1">
+      <c r="I62" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="2">
         <v>44461</v>
       </c>
@@ -1412,17 +1722,24 @@
       <c r="C63" s="1">
         <v>1</v>
       </c>
-      <c r="E63">
+      <c r="D63" s="1"/>
+      <c r="F63">
         <v>22</v>
       </c>
       <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1">
         <v>5.3</v>
       </c>
-      <c r="H63" s="1">
+      <c r="I63" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J63" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="2">
         <v>44461</v>
       </c>
@@ -1432,17 +1749,24 @@
       <c r="C64" s="1">
         <v>1</v>
       </c>
-      <c r="E64">
+      <c r="D64" s="1"/>
+      <c r="F64">
         <v>24</v>
       </c>
       <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
         <v>3.4</v>
       </c>
-      <c r="H64" s="1">
+      <c r="I64" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="2">
         <v>44461</v>
       </c>
@@ -1452,17 +1776,24 @@
       <c r="C65" s="1">
         <v>2</v>
       </c>
-      <c r="E65">
+      <c r="D65" s="1"/>
+      <c r="F65">
         <v>21.2</v>
       </c>
       <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
         <v>3.8</v>
       </c>
-      <c r="H65" s="1">
+      <c r="I65" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="2">
         <v>44461</v>
       </c>
@@ -1472,17 +1803,24 @@
       <c r="C66" s="1">
         <v>2</v>
       </c>
-      <c r="E66">
+      <c r="D66" s="1"/>
+      <c r="F66">
         <v>22.5</v>
       </c>
       <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
         <v>6.4</v>
       </c>
-      <c r="H66" s="1">
+      <c r="I66" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J66" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="2">
         <v>44461</v>
       </c>
@@ -1492,17 +1830,24 @@
       <c r="C67" s="1">
         <v>2</v>
       </c>
-      <c r="E67">
+      <c r="D67" s="1"/>
+      <c r="F67">
         <v>22</v>
       </c>
       <c r="G67" s="1">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H67" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="2">
         <v>44461</v>
       </c>
@@ -1512,17 +1857,24 @@
       <c r="C68" s="1">
         <v>3</v>
       </c>
-      <c r="E68">
+      <c r="D68" s="1"/>
+      <c r="F68">
         <v>22.5</v>
       </c>
       <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
         <v>7.7</v>
       </c>
-      <c r="H68" s="1">
+      <c r="I68" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J68" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="2">
         <v>44461</v>
       </c>
@@ -1532,17 +1884,24 @@
       <c r="C69" s="1">
         <v>3</v>
       </c>
-      <c r="E69">
+      <c r="D69" s="1"/>
+      <c r="F69">
         <v>23.9</v>
       </c>
       <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
         <v>3.5</v>
       </c>
-      <c r="H69" s="1">
+      <c r="I69" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J69" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="2">
         <v>44461</v>
       </c>
@@ -1552,17 +1911,24 @@
       <c r="C70" s="1">
         <v>3</v>
       </c>
-      <c r="E70">
+      <c r="D70" s="1"/>
+      <c r="F70">
         <v>20.9</v>
       </c>
       <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1">
         <v>4.8</v>
       </c>
-      <c r="H70" s="1">
+      <c r="I70" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J70" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="2">
         <v>44461</v>
       </c>
@@ -1572,17 +1938,24 @@
       <c r="C71" s="1">
         <v>4</v>
       </c>
-      <c r="E71">
+      <c r="D71" s="1"/>
+      <c r="F71">
         <v>23.6</v>
       </c>
       <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1">
         <v>4.2</v>
       </c>
-      <c r="H71" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="1">
+        <v>3</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="2">
         <v>44461</v>
       </c>
@@ -1592,17 +1965,24 @@
       <c r="C72" s="1">
         <v>4</v>
       </c>
-      <c r="E72">
+      <c r="D72" s="1"/>
+      <c r="F72">
         <v>23.4</v>
       </c>
       <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1">
         <v>6.6</v>
       </c>
-      <c r="H72" s="1">
+      <c r="I72" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J72" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="2">
         <v>44461</v>
       </c>
@@ -1612,265 +1992,365 @@
       <c r="C73" s="1">
         <v>4</v>
       </c>
-      <c r="E73">
+      <c r="D73" s="1"/>
+      <c r="F73">
         <v>23</v>
       </c>
       <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H73" s="1">
+      <c r="I73" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J73" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="2">
         <v>44464</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>8</v>
+      <c r="C74" s="1">
+        <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="2">
         <v>44464</v>
       </c>
       <c r="B75" s="1">
         <v>2</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>8</v>
+      <c r="C75" s="1">
+        <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E75" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
         <v>5.7</v>
       </c>
-      <c r="H75" s="1">
+      <c r="I75" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J75" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="2">
         <v>44464</v>
       </c>
       <c r="B76" s="1">
         <v>3</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>8</v>
+      <c r="C76" s="1">
+        <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E76" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1">
         <v>5.3</v>
       </c>
-      <c r="H76" s="1">
+      <c r="I76" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J76" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="2">
         <v>44464</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>9</v>
+      <c r="C77" s="1">
+        <v>2</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E77" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H77" s="1">
+      <c r="I77" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J77" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="2">
         <v>44464</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>9</v>
+      <c r="C78" s="1">
+        <v>2</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E78" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1">
         <v>6.5</v>
       </c>
-      <c r="H78" s="1">
+      <c r="I78" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J78" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="2">
         <v>44464</v>
       </c>
       <c r="B79" s="1">
         <v>3</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>9</v>
+      <c r="C79" s="1">
+        <v>2</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E79" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G79" s="1">
-        <v>5.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="H79" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="2">
         <v>44464</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>10</v>
+      <c r="C80" s="1">
+        <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="2">
         <v>44464</v>
       </c>
       <c r="B81" s="1">
         <v>2</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>10</v>
+      <c r="C81" s="1">
+        <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H81" s="1">
+      <c r="I81" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J81" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="2">
         <v>44464</v>
       </c>
       <c r="B82" s="1">
         <v>3</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>10</v>
+      <c r="C82" s="1">
+        <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G82" s="1">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H82" s="1">
+      <c r="I82" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J82" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="2">
         <v>44464</v>
       </c>
       <c r="B83" s="1">
         <v>1</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>11</v>
+      <c r="C83" s="1">
+        <v>4</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="2">
         <v>44464</v>
       </c>
       <c r="B84" s="1">
         <v>2</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>11</v>
+      <c r="C84" s="1">
+        <v>4</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="2">
         <v>44464</v>
       </c>
       <c r="B85" s="1">
         <v>3</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>11</v>
+      <c r="C85" s="1">
+        <v>4</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="1">
+        <v>15</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="1">
         <v>4.8</v>
       </c>
-      <c r="H85" s="1">
+      <c r="I85" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J85" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="2">
         <v>44467</v>
       </c>
       <c r="B86" s="1">
         <v>1</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>8</v>
+      <c r="C86" s="1">
+        <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>12</v>
@@ -1878,757 +2358,1039 @@
       <c r="E86" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>13</v>
+      <c r="F86" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="2">
         <v>44467</v>
       </c>
       <c r="B87" s="1">
         <v>2</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>8</v>
+      <c r="C87" s="1">
+        <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="1">
         <v>22.1</v>
       </c>
       <c r="G87" s="1">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1">
         <v>3.8</v>
       </c>
-      <c r="H87" s="1">
+      <c r="I87" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J87" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="2">
         <v>44467</v>
       </c>
       <c r="B88" s="1">
         <v>3</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>8</v>
+      <c r="C88" s="1">
+        <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="1">
         <v>23.5</v>
       </c>
       <c r="G88" s="1">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H88" s="1">
+      <c r="I88" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J88" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="2">
         <v>44467</v>
       </c>
       <c r="B89" s="1">
         <v>1</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>9</v>
+      <c r="C89" s="1">
+        <v>2</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="1">
         <v>22.1</v>
       </c>
       <c r="G89" s="1">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1">
         <v>4.5</v>
       </c>
-      <c r="H89" s="1">
+      <c r="I89" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J89" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="2">
         <v>44467</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>9</v>
+      <c r="C90" s="1">
+        <v>2</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="1">
         <v>23.2</v>
       </c>
       <c r="G90" s="1">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1">
         <v>6.3</v>
       </c>
-      <c r="H90" s="1">
+      <c r="I90" s="1">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J90" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="2">
         <v>44467</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>9</v>
+      <c r="C91" s="1">
+        <v>2</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="1">
         <v>23.1</v>
       </c>
       <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1">
         <v>6.6</v>
       </c>
-      <c r="H91" s="1">
+      <c r="I91" s="1">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J91" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="2">
         <v>44467</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>10</v>
+      <c r="C92" s="1">
+        <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>13</v>
+      <c r="F92" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="2">
         <v>44467</v>
       </c>
       <c r="B93" s="1">
         <v>2</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>10</v>
+      <c r="C93" s="1">
+        <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="1">
+        <v>15</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="1">
         <v>24.27</v>
       </c>
       <c r="G93" s="1">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1">
         <v>5.8</v>
       </c>
-      <c r="H93" s="1">
+      <c r="I93" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J93" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="2">
         <v>44467</v>
       </c>
       <c r="B94" s="1">
         <v>3</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>10</v>
+      <c r="C94" s="1">
+        <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>13</v>
+      <c r="F94" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="2">
         <v>44467</v>
       </c>
       <c r="B95" s="1">
         <v>1</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>11</v>
+      <c r="C95" s="1">
+        <v>4</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>13</v>
+      <c r="F95" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="2">
         <v>44467</v>
       </c>
       <c r="B96" s="1">
         <v>2</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>11</v>
+      <c r="C96" s="1">
+        <v>4</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>13</v>
+      <c r="F96" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="2">
         <v>44467</v>
       </c>
       <c r="B97" s="1">
         <v>3</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>11</v>
+      <c r="C97" s="1">
+        <v>4</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="1">
+        <v>15</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="1">
         <v>22.9</v>
       </c>
       <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="H97" s="1">
         <v>4.3</v>
       </c>
-      <c r="H97" s="1">
+      <c r="I97" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J97" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="2">
         <v>44470</v>
       </c>
       <c r="B98" s="1">
         <v>1</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>8</v>
+      <c r="C98" s="1">
+        <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="1"/>
-      <c r="G98" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="2">
         <v>44470</v>
       </c>
       <c r="B99" s="1">
         <v>2</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>8</v>
+      <c r="C99" s="1">
+        <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E99" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1">
         <v>4.2</v>
       </c>
-      <c r="H99" s="1">
+      <c r="I99" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J99" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="2">
         <v>44470</v>
       </c>
       <c r="B100" s="1">
         <v>3</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>8</v>
+      <c r="C100" s="1">
+        <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E100" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1">
         <v>6.2</v>
       </c>
-      <c r="H100" s="1">
+      <c r="I100" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J100" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="2">
         <v>44470</v>
       </c>
       <c r="B101" s="1">
         <v>1</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>9</v>
+      <c r="C101" s="1">
+        <v>2</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E101" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1">
         <v>5.5</v>
       </c>
-      <c r="H101" s="1">
+      <c r="I101" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J101" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="2">
         <v>44470</v>
       </c>
       <c r="B102" s="1">
         <v>2</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>9</v>
+      <c r="C102" s="1">
+        <v>2</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E102" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
         <v>7.5</v>
       </c>
-      <c r="H102" s="1">
+      <c r="I102" s="1">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J102" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="2">
         <v>44470</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>9</v>
+      <c r="C103" s="1">
+        <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E103" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1">
         <v>7.7</v>
       </c>
-      <c r="H103" s="1">
+      <c r="I103" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J103" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="2">
         <v>44470</v>
       </c>
       <c r="B104" s="1">
         <v>1</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>10</v>
+      <c r="C104" s="1">
+        <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104" s="1">
         <v>11.3</v>
       </c>
-      <c r="H104" s="1">
+      <c r="I104" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J104" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="2">
         <v>44470</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>10</v>
+      <c r="C105" s="1">
+        <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="1"/>
-      <c r="G105" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="1"/>
       <c r="H105" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="2">
         <v>44470</v>
       </c>
       <c r="B106" s="1">
         <v>3</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>10</v>
+      <c r="C106" s="1">
+        <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G106" s="1">
+        <v>1</v>
+      </c>
+      <c r="H106" s="1">
         <v>5.2</v>
       </c>
-      <c r="H106" s="1">
+      <c r="I106" s="1">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J106" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="2">
         <v>44470</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>11</v>
+      <c r="C107" s="1">
+        <v>4</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="2">
         <v>44470</v>
       </c>
       <c r="B108" s="1">
         <v>2</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>11</v>
+      <c r="C108" s="1">
+        <v>4</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="2">
         <v>44470</v>
       </c>
       <c r="B109" s="1">
         <v>3</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>11</v>
+      <c r="C109" s="1">
+        <v>4</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G109" s="1">
+        <v>1</v>
+      </c>
+      <c r="H109" s="1">
         <v>3.2</v>
       </c>
-      <c r="H109" s="1">
+      <c r="I109" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J109" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="2">
         <v>44473</v>
       </c>
       <c r="B110" s="1">
         <v>1</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>8</v>
+      <c r="C110" s="1">
+        <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="2">
         <v>44473</v>
       </c>
       <c r="B111" s="1">
         <v>2</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>8</v>
+      <c r="C111" s="1">
+        <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E111" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G111" s="1">
+        <v>1</v>
+      </c>
+      <c r="H111" s="1">
         <v>5.2</v>
       </c>
-      <c r="H111" s="1">
+      <c r="I111" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J111" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="2">
         <v>44473</v>
       </c>
       <c r="B112" s="1">
         <v>3</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>8</v>
+      <c r="C112" s="1">
+        <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E112" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G112" s="1">
+        <v>1</v>
+      </c>
+      <c r="H112" s="1">
         <v>7.7</v>
       </c>
-      <c r="H112" s="1">
+      <c r="I112" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J112" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="2">
         <v>44473</v>
       </c>
       <c r="B113" s="1">
         <v>1</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>9</v>
+      <c r="C113" s="1">
+        <v>2</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E113" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="H113" s="1">
         <v>6.4</v>
       </c>
-      <c r="H113" s="1">
+      <c r="I113" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J113" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="2">
         <v>44473</v>
       </c>
       <c r="B114" s="1">
         <v>2</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>9</v>
+      <c r="C114" s="1">
+        <v>2</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E114" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G114" s="1">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1">
         <v>10.1</v>
       </c>
-      <c r="H114" s="1">
+      <c r="I114" s="1">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J114" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="2">
         <v>44473</v>
       </c>
       <c r="B115" s="1">
         <v>3</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>9</v>
+      <c r="C115" s="1">
+        <v>2</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E115" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G115" s="1">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1">
         <v>9.5</v>
       </c>
-      <c r="H115" s="1">
+      <c r="I115" s="1">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J115" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="2">
         <v>44473</v>
       </c>
       <c r="B116" s="1">
         <v>1</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>10</v>
+      <c r="C116" s="1">
+        <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="2">
         <v>44473</v>
       </c>
       <c r="B117" s="1">
         <v>2</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>10</v>
+      <c r="C117" s="1">
+        <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G117" s="1">
+        <v>1</v>
+      </c>
+      <c r="H117" s="1">
         <v>5.2</v>
       </c>
-      <c r="H117" s="1">
+      <c r="I117" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J117" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="2">
         <v>44473</v>
       </c>
       <c r="B118" s="1">
         <v>3</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>10</v>
+      <c r="C118" s="1">
+        <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="2">
         <v>44473</v>
       </c>
       <c r="B119" s="1">
         <v>1</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>11</v>
+      <c r="C119" s="1">
+        <v>4</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="2">
         <v>44473</v>
       </c>
       <c r="B120" s="1">
         <v>2</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>11</v>
+      <c r="C120" s="1">
+        <v>4</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="2">
         <v>44473</v>
       </c>
       <c r="B121" s="1">
         <v>3</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>11</v>
+      <c r="C121" s="1">
+        <v>4</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="2">
         <v>44476</v>
       </c>
       <c r="B122" s="1">
         <v>1</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>8</v>
+      <c r="C122" s="1">
+        <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>12</v>
@@ -2636,264 +3398,348 @@
       <c r="E122" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="2">
         <v>44476</v>
       </c>
       <c r="B123" s="1">
         <v>2</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>8</v>
+      <c r="C123" s="1">
+        <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="3">
         <v>21.84</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="3"/>
+      <c r="H123" s="3">
         <v>7.5</v>
       </c>
-      <c r="H123">
+      <c r="I123" s="3">
         <v>5.64</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J123" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="2">
         <v>44476</v>
       </c>
       <c r="B124" s="1">
         <v>3</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>8</v>
+      <c r="C124" s="1">
+        <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="3">
         <v>23.4</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="3"/>
+      <c r="H124" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H124">
+      <c r="I124" s="3">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J124" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="2">
         <v>44476</v>
       </c>
       <c r="B125" s="1">
         <v>1</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>9</v>
+      <c r="C125" s="1">
+        <v>2</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="3">
         <v>21.8</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="3"/>
+      <c r="H125" s="3">
         <v>12.8</v>
       </c>
-      <c r="H125">
+      <c r="I125" s="3">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J125" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="2">
         <v>44476</v>
       </c>
       <c r="B126" s="1">
         <v>2</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>9</v>
+      <c r="C126" s="1">
+        <v>2</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="3">
         <v>23.09</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="3"/>
+      <c r="H126" s="3">
         <v>11.8</v>
       </c>
-      <c r="H126">
+      <c r="I126" s="3">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J126" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="2">
         <v>44476</v>
       </c>
       <c r="B127" s="1">
         <v>3</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>9</v>
+      <c r="C127" s="1">
+        <v>2</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="3">
         <v>22.3</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="3"/>
+      <c r="H127" s="3">
         <v>11.2</v>
       </c>
-      <c r="H127">
+      <c r="I127" s="3">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J127" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="2">
         <v>44476</v>
       </c>
       <c r="B128" s="1">
         <v>1</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>10</v>
+      <c r="C128" s="1">
+        <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="2">
         <v>44476</v>
       </c>
       <c r="B129" s="1">
         <v>2</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>10</v>
+      <c r="C129" s="1">
+        <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129">
+        <v>15</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" s="3">
         <v>25.01</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="3"/>
+      <c r="H129" s="3">
         <v>7.8</v>
       </c>
-      <c r="H129">
+      <c r="I129" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J129" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="2">
         <v>44476</v>
       </c>
       <c r="B130" s="1">
         <v>3</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>10</v>
+      <c r="C130" s="1">
+        <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="2">
         <v>44476</v>
       </c>
       <c r="B131" s="1">
         <v>1</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>11</v>
+      <c r="C131" s="1">
+        <v>4</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="2">
         <v>44476</v>
       </c>
       <c r="B132" s="1">
         <v>2</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>11</v>
+      <c r="C132" s="1">
+        <v>4</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="2">
         <v>44476</v>
       </c>
       <c r="B133" s="1">
         <v>3</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>11</v>
+      <c r="C133" s="1">
+        <v>4</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133">
+        <v>15</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="3">
         <v>19.8</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="3"/>
+      <c r="H133" s="3">
         <v>0</v>
       </c>
-      <c r="H133" s="1">
+      <c r="I133" s="3">
         <v>0</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
